--- a/src/assets/zxsj_mb/sjzxtb_k23_rcpy3l.xlsx
+++ b/src/assets/zxsj_mb/sjzxtb_k23_rcpy3l.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>年度</t>
   </si>
@@ -34,6 +34,15 @@
     <t>学位获得率</t>
   </si>
   <si>
+    <t>毕业设计通过率</t>
+  </si>
+  <si>
+    <t>毕业设计优秀率</t>
+  </si>
+  <si>
+    <t>面授辅导课出勤率</t>
+  </si>
+  <si>
     <t>上海开放大学</t>
   </si>
   <si>
@@ -45,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -68,41 +77,72 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -110,16 +150,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,9 +176,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,12 +192,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -173,39 +207,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,187 +229,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,6 +438,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -444,11 +462,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,7 +481,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,15 +518,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -512,17 +527,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,10 +543,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,133 +555,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1005,13 +1014,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="8.91666666666667" customWidth="1"/>
     <col min="2" max="2" width="14.8333333333333" customWidth="1"/>
@@ -1020,7 +1029,7 @@
     <col min="5" max="5" width="15.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:6">
+    <row r="1" ht="25" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1039,8 +1048,17 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" ht="25" customHeight="1" spans="1:6">
+    <row r="2" ht="25" customHeight="1" spans="1:9">
       <c r="A2" s="2">
         <v>2018</v>
       </c>
@@ -1048,7 +1066,7 @@
         <v>51252</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -1059,8 +1077,17 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" ht="25" customHeight="1" spans="1:6">
+    <row r="3" ht="25" customHeight="1" spans="1:9">
       <c r="A3" s="2">
         <v>2017</v>
       </c>
@@ -1068,7 +1095,7 @@
         <v>51252</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -1079,8 +1106,17 @@
       <c r="F3" s="2">
         <v>0</v>
       </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:6">
+    <row r="4" ht="25" customHeight="1" spans="1:9">
       <c r="A4" s="2">
         <v>2016</v>
       </c>
@@ -1088,7 +1124,7 @@
         <v>51252</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -1099,8 +1135,17 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" ht="25" customHeight="1" spans="1:6">
+    <row r="5" ht="25" customHeight="1" spans="1:9">
       <c r="A5" s="2">
         <v>2018</v>
       </c>
@@ -1108,7 +1153,7 @@
         <v>31009</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1119,8 +1164,17 @@
       <c r="F5" s="2">
         <v>0</v>
       </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" ht="25" customHeight="1" spans="1:6">
+    <row r="6" ht="25" customHeight="1" spans="1:9">
       <c r="A6" s="2">
         <v>2017</v>
       </c>
@@ -1128,7 +1182,7 @@
         <v>31009</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -1137,6 +1191,15 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
         <v>0</v>
       </c>
     </row>

--- a/src/assets/zxsj_mb/sjzxtb_k23_rcpy3l.xlsx
+++ b/src/assets/zxsj_mb/sjzxtb_k23_rcpy3l.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>年度</t>
+  </si>
+  <si>
+    <t>学期</t>
   </si>
   <si>
     <t>学校代码</t>
@@ -25,28 +28,28 @@
     <t>学校名称</t>
   </si>
   <si>
-    <t>毕业率</t>
+    <t>毕业环节通过人数-本科</t>
   </si>
   <si>
-    <t>流失率</t>
+    <t>毕业环节通过人数-专科</t>
   </si>
   <si>
-    <t>学位获得率</t>
+    <t>毕业环节通过率-本科</t>
   </si>
   <si>
-    <t>毕业设计通过率</t>
-  </si>
-  <si>
-    <t>毕业设计优秀率</t>
+    <t>毕业环节通过率-专科</t>
   </si>
   <si>
     <t>面授辅导课出勤率</t>
   </si>
   <si>
+    <t>春</t>
+  </si>
+  <si>
     <t>上海开放大学</t>
   </si>
   <si>
-    <t>奉贤分校</t>
+    <t>秋</t>
   </si>
 </sst>
 </file>
@@ -54,9 +57,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -76,22 +79,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,53 +103,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,22 +161,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -190,31 +169,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,13 +232,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,145 +394,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,18 +413,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,15 +441,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -458,6 +452,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,38 +522,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,15 +538,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -543,10 +546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,133 +558,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,19 +1017,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="8.91666666666667" customWidth="1"/>
-    <col min="2" max="2" width="14.8333333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="15.5833333333333" customWidth="1"/>
-    <col min="5" max="5" width="15.6666666666667" customWidth="1"/>
+    <col min="1" max="2" width="8.91666666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
+    <col min="5" max="6" width="21.9166666666667" customWidth="1"/>
+    <col min="7" max="8" width="19.9166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:9">
@@ -1062,14 +1065,14 @@
       <c r="A2" s="2">
         <v>2018</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
         <v>51252</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -1091,14 +1094,14 @@
       <c r="A3" s="2">
         <v>2017</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
         <v>51252</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -1118,16 +1121,16 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9">
       <c r="A4" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B4" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
         <v>51252</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -1147,16 +1150,16 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:9">
       <c r="A5" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B5" s="2">
-        <v>31009</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>51252</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1176,17 +1179,17 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:9">
       <c r="A6" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B6" s="2">
-        <v>31009</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>51252</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
@@ -1200,6 +1203,35 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:9">
+      <c r="A7" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>51252</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
         <v>0</v>
       </c>
     </row>
